--- a/ImmResult.xlsx
+++ b/ImmResult.xlsx
@@ -490,14 +490,16 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Yusuf: The correct structure is "Which program do you plan to apply for?" Try using a preposition after "apply."</t>
+          <t>[Feedback] Error: *Which program do you plan to apply to?*
+Feedback: *It seems like there might be a small issue with the preposition used in the sentence.*
+Yusuf: I'm thinking of applying to the engineering exchange program. It sounds really interesting.</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -518,17 +520,19 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Yusuf: Try reordering the words to say, "Which country do you live in?"</t>
+          <t>[Feedback] Error: *Which do you live in country*
+Feedback: *There seems to be a missing preposition in the sentence.*
+Yusuf: I live in Turkey. How about you, Omar?</t>
         </is>
       </c>
       <c r="D3" t="n">
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -546,14 +550,16 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Yusuf: It should be "Do you want to live in Spain?" Use "to" after "want" to connect it with the verb.</t>
+          <t>[Feedback] Error: *Yes you want living in Spain?*
+Feedback: *It seems like there might be a small issue with the preposition used in the sentence.*
+Yusuf: I haven't thought about living in Spain, but studying there could be amazing.</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -572,7 +578,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Yusuf: The correct order is "When will you start the exchange program?" Try removing the hyphen between "exchange" and "program."</t>
+          <t>Yusuf: I'll be starting the exchange program next semester. I can't wait to experience studying abroad.</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -598,7 +604,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Yusuf: To sound more natural, you can say, "Can you send me a website with housing information?" Use "with" to link "website" and "housing information."</t>
+          <t>Yusuf: Sure, I'll send you a link to the university's housing page. It has all the information you need.</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -626,17 +632,19 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Yusuf: It would be more accurate to say, "Thank you. Which session will you go to?" Place "will you go to" after "session."</t>
+          <t>[Feedback] Error: *Thank you,which will you go to session?*
+Feedback: *There seems to be a missing preposition in the sentence.*
+Yusuf: I'll be attending the session on study abroad opportunities next week. It should be really informative.</t>
         </is>
       </c>
       <c r="D7" t="n">
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -654,17 +662,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Yusuf: You can make it more natural by saying, "I think you should fill out the application form now." Add "out" after "fill" to correctly use the phrasal verb.</t>
+          <t>Yusuf: You're right, I should fill out the application form soon before the deadline. Thanks for the reminder, Omar.</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -682,7 +690,9 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Yusuf: The correct phrasing is "To whom should we surrender?" Move "surrender" to the end of the sentence for proper word order.</t>
+          <t>[Feedback] Error: *To whom should we surrender?*
+Feedback: *The sentence structure sounds a bit formal for a casual conversation. Try making it sound more natural.*
+Yusuf: Surrender? Are we in a battle, Omar?</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -710,17 +720,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Yusuf: It is better to ask, "How long will the session last?" Add "last" after "session" to inquire about the duration.</t>
+          <t>Yusuf: The session is scheduled to last for about an hour. It shouldn't be too long.</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -736,7 +746,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Yusuf: You can say, "I have a problem, so who should I send an email to?" Add a comma before "so" to separate the clauses.</t>
+          <t>Yusuf: If you have a problem, you should probably send an email to the student services office. They can help you out with any issues you're facing.</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -762,7 +772,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Yusuf: That's correct! Your sentence is clear and accurate.</t>
+          <t>Yusuf: Yes, I took an English proficiency test last month. It was quite challenging, but I managed to do well.</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -788,7 +798,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Yusuf: It should be "No, I don't have any plans for an English exam." Use "for" before "an English exam" to show the purpose or intention.</t>
+          <t>Yusuf: That's okay, Omar. If you ever decide to take one, I can help you prepare.</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -814,7 +824,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Yusuf: The correct phrasing is "Which website do you listen to for lessons?" Use "for" after "listen to" to indicate the purpose of listening.</t>
+          <t>Yusuf: I usually listen to online lectures on the university's e-learning platform. It's convenient and has all the course materials.</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -840,7 +850,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Yusuf: That's great! Keep up the good work.</t>
+          <t>Yusuf: Yeah, it's really helpful, especially when you need to catch up on missed classes.</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -868,17 +878,19 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Yusuf: Good job using the correct order! Your sentence is clear and accurate.</t>
+          <t>[Feedback] Error: *In which area do you want to increase your score?*
+Feedback: *The preposition used in the sentence might need a slight adjustment for clarity.*
+Yusuf: I'm aiming to improve my writing skills the most. I find it challenging to express my ideas clearly on paper.</t>
         </is>
       </c>
       <c r="D16" t="n">
         <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -894,7 +906,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Yusuf: That's a good question! Your sentence is structured perfectly.</t>
+          <t>Yusuf: I study English with a language partner from the language exchange program. It's a great way to practice speaking.</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -920,7 +932,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Yusuf: Good job with the structure! Your sentence is clear and accurate.</t>
+          <t>Yusuf: I usually get my exam preparation materials from the university library or online resources. They have a lot of helpful study materials available.</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -946,7 +958,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Yusuf: You're doing well! Your invitation is clear and correctly structured.</t>
+          <t>Yusuf: That sounds like a great idea, Omar! We can practice speaking and maybe work on some grammar exercises together.</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -972,7 +984,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Yusuf: Thank you for your kind words! Your sentence is polite and well-structured.</t>
+          <t>Yusuf: Thanks, Omar! I appreciate the compliment. It's important to be polite and respectful in our interactions.</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -998,7 +1010,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Great job on our English drama script! If you'd like to practice more, feel free to start another scenario. Well done!</t>
+          <t>Yusuf: That was a fun conversation, Omar. Let's catch up again soon. See you later!</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -1019,7 +1031,7 @@
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>60.00%</t>
+          <t>85.00%</t>
         </is>
       </c>
     </row>
@@ -1089,17 +1101,19 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Yusuf: I think you mean, "Which program did you apply to?" Remember to use the preposition "to" after "apply."</t>
+          <t>[Feedback] Error: *Which program did you applied?*
+Feedback: *Try using a different verb form to match the tense of 'did'.*
+Yusuf: I applied for the exchange program in Spain. It's a great opportunity to experience a different culture.</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1115,7 +1129,9 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Yusuf: You should say, "Me too," when you agree with something. Remember to use "too" instead of just "to." Great job!</t>
+          <t>[Feedback] Error: *Me to*
+Feedback: *Consider using a different pronoun to express your involvement in the conversation.*
+Yusuf: That's awesome! Have you started preparing for your trip yet?</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -1143,17 +1159,19 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Yusuf: You should say, "Which country do you want to study abroad in?" Remember to include the preposition "in" to show where you want to study.</t>
+          <t>[Feedback] Error: *Which country do you want to study abroad?*
+Feedback: *The preposition is in the right place, but it’s not the correct one. Try using a different preposition.*
+Yusuf: I'm thinking of studying in Germany. The universities there are known for their engineering programs.</t>
         </is>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -1169,7 +1187,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Yusuf: That's great! Italy is a beautiful country with lots of history. Have you decided which city in Italy you want to study in?</t>
+          <t>That sounds like a fantastic choice! Italy is known for its rich history and vibrant culture. Have you started looking into universities there?</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -1197,14 +1215,16 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Yusuf: You should say, "When do you want to start your Erasmus program?" Just remove the extra "to" after "start."</t>
+          <t>[Feedback] Error: *When do you want to start to your Erasmus program?*
+Feedback: *Try adjusting the preposition to correctly connect 'start' with the object.*
+Yusuf: I'm planning to start my Erasmus program next semester. I can't wait to experience studying in a different country.</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1225,17 +1245,19 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Yusuf: You should say, "Which website can I download your program brochure from?" Remember to include the preposition "from" after "brochure."</t>
+          <t>[Feedback] Error: *Which website can I dowland your program brochure?*
+Feedback: *Check the preposition used with 'download' to ensure it matches the action.*
+Yusuf: You can download the program brochure from the university's official website. It should have all the information you need.</t>
         </is>
       </c>
       <c r="D7" t="n">
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -1251,7 +1273,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Yusuf: You should say, "What kind of accommodation are you considering?" Remember to use the correct form of "considering" in the sentence.</t>
+          <t>I'm looking into student dormitories near the university campus. It seems like a convenient option for my stay during the program.</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -1277,7 +1299,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Yusuf: You should say, "Can you send me the link of the website which is about accommodation?" Remember to include "is" before "about" in the sentence.</t>
+          <t>I can share the link with you. Here it is: [insert link]. You should find all the details about accommodation options there.</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -1305,7 +1327,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Yusuf: You should say, "Which session will you attend?" Remember to use "attend" instead of "go" when talking about sessions or classes.</t>
+          <t>I'm planning to attend the summer session for the program. It aligns well with my academic schedule.</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -1331,7 +1353,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Yusuf: You should say, "Should we fill out the application form now?" Remember to use "fill out" instead of just "fill" when talking about forms.</t>
+          <t>It's a good idea to start filling out the application form soon. The deadline might be approaching, so we shouldn't wait too long.</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -1359,7 +1381,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Yusuf: You should say, "Who should we submit the application form to?" Remember to place "to" after "submit" to show the recipient of the form.</t>
+          <t>We need to submit the application form to the international office at our university. They will guide us through the process.</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -1385,7 +1407,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Yusuf: You should say, "How long will the information meeting be?" Remember to place "be" at the end of the sentence to form a complete question.</t>
+          <t>The information meeting is scheduled to last about an hour. It will cover all the essential details about the program and application process.</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -1413,7 +1435,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Yusuf: You should say, "Who should I address the email to?" Remember to use "address the email to" when talking about the recipient.</t>
+          <t>You should address the email to the coordinator of the exchange program. They will be able to assist you with any questions or concerns you have.</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -1439,7 +1461,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Yusuf: You should say, "Did you take the English exam?" Remember to capitalize "English" as it is a proper noun. Great job!</t>
+          <t>Yes, I took the English exam last week. It was challenging, but I think I did well overall.</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -1465,7 +1487,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Yusuf: You should say, "Which website do you use to watch lesson videos?" Remember to include the preposition "to" after "use."</t>
+          <t>I usually use YouTube for watching lesson videos. There are many educational channels that offer helpful content.</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -1493,7 +1515,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Yusuf: You should say, "Which area do you want to improve your scores in?" Remember to include the preposition "in" after "scores."</t>
+          <t>I want to focus on improving my scores in grammar and vocabulary. I feel like those areas need a bit more attention.</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -1519,7 +1541,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Yusuf: You should say, "Who are you studying English with?" Remember to include the preposition "with" to show who you are studying alongside.</t>
+          <t>I'm studying English with a language exchange partner. We practice speaking and writing in English together.</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -1547,7 +1569,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Yusuf: You should say, "Who did you reserve your materials with?" Remember to use the preposition "with" to show who you reserved the materials with.</t>
+          <t>I reserved my materials at the university library. They have a section dedicated to the resources we need for our courses.</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -1575,7 +1597,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Yusuf: You should say, "Who did you receive your materials from?" Remember to use the preposition "from" after "receive" to show the source of the materials.</t>
+          <t>I received my materials from the professor during our last class. They handed them out to all the students who needed them.</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -1601,7 +1623,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Yusuf: You should say, "Can we meet next week to study English?" Remember to use the infinitive form "to study" after "meet." Great idea!</t>
+          <t>Sure, we can meet next week to study English together. It's always helpful to practice with a study partner.</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -1627,7 +1649,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Great job on our English practice session! If you have any more questions or want to continue practicing, feel free to ask. See you next time!</t>
+          <t>It was great chatting with you! If you have any more questions or need help in the future, feel free to reach out. Have a wonderful day!</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -1648,7 +1670,7 @@
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>52.38%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -1681,7 +1703,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>55.80%</t>
+          <t>75.91%</t>
         </is>
       </c>
     </row>
@@ -1705,19 +1727,19 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>30.77%</t>
+          <t>61.54%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>43</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>36.84%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -1788,14 +1810,16 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Yusuf: That sounds exciting, Omar! I've considered Erasmus too. It's a great opportunity to study abroad.</t>
+          <t>[Feedback] Error: *I have been thinking about applying to an erasmus program.*  
+Feedback: *Try adding a preposition to connect 'Erasmus program' with the action.*
+Yusuf: Yeah, I'm considering it too. It sounds like a great opportunity.</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1814,17 +1838,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Feedback: Consider using "in" after "interested" to show what specifically you are interested in.</t>
+          <t>Yusuf: I'm interested in the engineering program. It seems like a good fit for me.</t>
         </is>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1843,17 +1867,19 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Yusuf: I'd love to explore Spain or maybe Italy. The Mediterranean countries have always fascinated me.</t>
+          <t>[Feedback] Error: *Which country would you prefer to go?*  
+Feedback: *Try using a different preposition after 'prefer' to indicate the destination.*
+Yusuf: I'm thinking of going to Spain. The culture there is fascinating.</t>
         </is>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -1869,7 +1895,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Yusuf: I'm aiming for the fall semester next year. It aligns better with my course schedule.</t>
+          <t>Yusuf: I'm planning to go next semester. How about you, Omar?</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -1898,17 +1924,19 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Feedback: Try using "a" before "leaflet" to refer to any specific leaflet.</t>
+          <t>[Feedback] Error: *download an leaflet of Erasmus an program.*  
+Feedback: *It seems there's an article issue before 'leaflet.'*
+Yusuf: You can find information on the Erasmus program on their official website.</t>
         </is>
       </c>
       <c r="D6" t="n">
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1924,7 +1952,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Yusuf: I'm thinking of staying in student dormitories on campus. It's usually more convenient and budget-friendly for Erasmus students.</t>
+          <t>Yusuf: I'm thinking of staying in a shared apartment. It's more affordable and social.</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -1953,14 +1981,14 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Feedback: Consider using "a" before "link" to refer to any specific link that provides information.</t>
+          <t>Yusuf: Sure, I can send you the link to the university's housing page. Just give me a moment.</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>1</v>
@@ -1982,17 +2010,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Feedback: Consider adding "to" after "going" to show where you are going for the information session.</t>
+          <t>Yusuf: I'm planning to attend the one tomorrow afternoon. It fits well with my schedule.</t>
         </is>
       </c>
       <c r="D9" t="n">
         <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -2008,7 +2036,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Yusuf: Good idea, Omar. It's better to have everything ready before the deadline. Let's get started on our application forms soon.</t>
+          <t>Yusuf: That sounds like a good plan. Let's get that done today so we can focus on other things later.</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -2037,7 +2065,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Yusuf: We usually submit them to the international office at our university. They can guide us on the process.</t>
+          <t>Yusuf: We should submit the forms to the international office. They handle all the Erasmus applications.</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -2063,17 +2091,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Feedback: Try using "will" after the subject to form a question about the duration of the info session.</t>
+          <t>Yusuf: The info session usually lasts about an hour. It's quite informative and helpful.</t>
         </is>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -2092,7 +2120,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Yusuf: If you encounter any issues, Omar, you can send an email to the Erasmus coordinator. They can assist you with any problems you may face.</t>
+          <t>Yusuf: If you encounter any issues, you can send an email to the Erasmus coordinator. They'll be able to assist you with any problems you may have.</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -2118,17 +2146,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Feedback: Consider using "an" before "English exam" to refer to a specific exam.</t>
+          <t>Yusuf: Yes, I took the TOEFL exam last month. It was challenging but I managed to do well.</t>
         </is>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -2144,7 +2172,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Yusuf: Khan Academy and Coursera are great platforms for educational videos. They offer a wide range of subjects to help you improve your English skills.</t>
+          <t>Yusuf: You should check out websites like Khan Academy or Coursera. They have a lot of educational videos to help you improve your English skills.</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -2173,7 +2201,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Yusuf: I want to focus on grammar and vocabulary to boost my overall English proficiency. Practicing regularly is key to improvement.</t>
+          <t>Yusuf: I'm focusing on improving my speaking and writing skills. I feel like those are the areas where I need the most practice.</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -2202,17 +2230,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Yusuf: That sounds like a plan, Omar. Studying together can be motivating and helpful for both of us. Let's set up a schedule to study together.</t>
+          <t>Yusuf: That sounds like a great idea. We can practice together and help each other improve our English skills.</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -2231,7 +2259,9 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Feedback: Consider using "from" instead of "form" after "material" to show the source.</t>
+          <t>[Feedback] Error: *Whom did you receive that material form?*  
+Feedback: *The sentence is correct but sounds very formal. Try making it sound more natural by moving the preposition to the end.*
+Yusuf: I got it from one of my classmates.</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -2257,7 +2287,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Yusuf: Sure, let's plan to meet next week to practice speaking. Working on our speaking skills together will be beneficial for both of us.</t>
+          <t>Yusuf: Sure, let's plan to meet next week. We can practice speaking together and work on our fluency.</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -2283,7 +2313,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Great job on the conversation! If you have any more questions or need further practice, feel free to ask. Keep up the good work!</t>
+          <t>It was great chatting with you! If you have more questions or need help in the future, feel free to reach out. Good luck with your English studies!</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -2304,7 +2334,7 @@
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>52.63%</t>
+          <t>68.42%</t>
         </is>
       </c>
     </row>
@@ -2372,7 +2402,9 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Yusuf: I'm doing well, thanks. Just finished my assignment. What about you?</t>
+          <t>[Feedback] Error: *I am fine how about you*  
+Feedback: *In English, we usually use "I'm" instead of "I am" in casual conversations.*
+Yusuf: I'm good, thanks for asking. Just finished a long day of classes.</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -2401,7 +2433,9 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Feedback: Try using "planning to" instead of "planing to" to show future intentions.</t>
+          <t>[Feedback] Error: *which program are you planing to apply on*  
+Feedback: *Try removing the preposition "on" after 'apply'.*
+Yusuf: I'm thinking of applying to the engineering program. What about you, Omar?</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -2427,7 +2461,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Yusuf: I'm thinking of applying to the Computer Science program. It sounds interesting.</t>
+          <t>Yusuf: I'm considering applying to the business administration program. It seems like a good fit for me.</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -2456,7 +2490,9 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Feedback: Remember to use the word "country" instead of "county" when talking about different nations.</t>
+          <t>[Feedback] Error: *Which county do you want to srudy abroad to*  
+Feedback: *The preposition is in the right place, but it's not the correct one. Try using a different preposition.*
+Yusuf: I'm thinking of studying abroad in the United States. How about you, Omar?</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -2485,17 +2521,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Feedback: Use "abroad" as an adverb to describe where you want to study.</t>
+          <t>Yusuf: I'm thinking of studying abroad in Spain. The culture there really interests me.</t>
         </is>
       </c>
       <c r="D6" t="n">
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -2511,7 +2547,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Yusuf: Italy is a beautiful country with great universities. Have you thought about which city you would like to study in?</t>
+          <t>That's a great choice! Italy is known for its rich history and delicious food. Have you started looking into universities there?</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -2540,7 +2576,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Yusuf: I'm aiming to start the program next fall. How about you, when are you thinking of starting?</t>
+          <t>I'm planning to start the program next fall. It gives me some time to prepare and get everything in order.</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -2566,7 +2602,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Yusuf: I'm looking at student dormitories or maybe a shared apartment. Have you thought about the kind of accommodation you prefer?</t>
+          <t>I'm looking into student dormitories on campus. It seems like a convenient option for my first year abroad.</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -2592,7 +2628,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Yusuf: Sure, let me find the website for you. I'll send it to you as soon as I locate it.</t>
+          <t>I can definitely help with that. Let me find the website for you.</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -2618,7 +2654,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Yusuf: I'm enrolled in the morning session. How about you, which session did you choose?</t>
+          <t>I'm currently taking the morning session. It works best with my schedule.</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -2644,7 +2680,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Yusuf: Sounds good, let's fill out the form together. I'll get it ready, and we can start filling it out.</t>
+          <t>Sure, let's fill out the form together. Do you have it with you, Omar?</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -2670,7 +2706,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Yusuf: We should submit the form to the university's admissions office. They will process our applications once we hand it in there.</t>
+          <t>We should submit the form to the international student office. They'll be able to guide us through the process.</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -2696,17 +2732,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Feedback: Try using "information session" instead of "informative session" to talk about a session that provides information.</t>
+          <t>The information session usually lasts about an hour. It's good to be prepared with any questions you might have.</t>
         </is>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -2722,17 +2758,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Feedback: Remember to use "I" instead of "ı" when referring to yourself.</t>
+          <t>You should write the email to the admissions office. They can assist you with any inquiries you may have.</t>
         </is>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -2751,7 +2787,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Yusuf: I took an English test a few days ago. It wasn't too difficult. How about you, have you taken an English test recently?</t>
+          <t>Yes, I took an English test last week. It was challenging, but I think I did okay.</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -2780,17 +2816,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Feedback: Use "using" instead of "useing" in this sentence.</t>
+          <t>I usually use YouTube to watch videos. It has a wide variety of content to choose from.</t>
         </is>
       </c>
       <c r="D17" t="n">
         <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2809,7 +2845,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Yusuf: I'm focusing on improving my scores in the listening and speaking sections. Have you identified which areas you want to work on for better results?</t>
+          <t>I'm planning to focus on improving my scores in math and science. Those subjects are a bit challenging for me.</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -2835,7 +2871,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Yusuf: I study English with a language exchange partner. Is there someone specific you study with?</t>
+          <t>I study English with a language exchange partner. It's really helpful to practice speaking with a native speaker.</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -2864,14 +2900,14 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Feedback: Try using the word "materials" instead of "materyals" for resources.</t>
+          <t>I received the materials from the language center at our university. They provide resources for students to improve their language skills.</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>1</v>
@@ -2890,7 +2926,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Yusuf: That sounds like a great idea. We can work on our English together. When are you available next week?</t>
+          <t>That sounds like a great idea! We can grab a coffee and practice speaking English together.</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -2916,7 +2952,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Nice job today! If you have any more questions or need help in the future, feel free to ask. Goodbye!</t>
+          <t>It was nice chatting with you, Omar! See you soon for our English practice session. Take care!</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -3005,7 +3041,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Yusuf: Hey, Omar! I'm good, just finished my biology assignment. How about you?</t>
+          <t>Yusuf: I'm good, man. Just trying to finish this assignment for Professor Davis.</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -3034,17 +3070,19 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Yusuf: I'm thinking of applying to the engineering program. It seems interesting to me.</t>
+          <t>[Feedback] Error: *which program u will apply*  
+Feedback: *Try adding a preposition to connect 'apply' with the program.*
+Yusuf: I'm thinking of applying to the engineering exchange program in Germany.</t>
         </is>
       </c>
       <c r="D3" t="n">
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -3063,7 +3101,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Yusuf: I'm considering studying in the United States. The universities there offer great opportunities in my field.</t>
+          <t>Yusuf: I'm considering studying abroad in the United States. The universities there have some great programs.</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -3089,7 +3127,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Yusuf: I plan to start the program next fall. I still have some time to prepare.</t>
+          <t>Yusuf: I plan to start the program next semester. I need to prepare my documents and apply soon.</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -3115,7 +3153,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Yusuf: Thanks, Omar! I'm excited about the possibilities. It's going to be an interesting journey.</t>
+          <t>Yusuf: Thanks, man. I'm really excited about the opportunity.</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -3141,17 +3179,19 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Feedback: Try using "get" instead of "receive" in this context to talk about obtaining something informally.</t>
+          <t>[Feedback] Error: *no how can i receive it*  
+Feedback: *It seems like you're looking for information. You can rephrase it to ask for help more clearly.*
+Yusuf: Do you need help with something?</t>
         </is>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -3167,17 +3207,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Feedback: Check the spelling of "look" in your sentence.</t>
+          <t>Yusuf: Sure thing. Let me know if you need any help or have any questions about it.</t>
         </is>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -3193,7 +3233,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Yusuf: I'm considering staying in a student dormitory at Spain. It might be a good way to meet new people.</t>
+          <t>Yusuf: I'm still figuring that out. I might stay in a student dormitory or look for a shared apartment.</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -3219,7 +3259,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Yusuf: Sure, I'll send you the link to the dormitory's website. It has all the information you need.</t>
+          <t>Yusuf: Sure, I'll send you the link to the dormitory website once I find it.</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -3245,17 +3285,19 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Feedback: Use "stay information" instead of "staying infos" to talk about details of your accommodation.</t>
+          <t>[Feedback] Error: *then can u send me ur staying infos*  
+Feedback: *When asking for information, it's better to be more specific about what you need. Try asking for details about the accommodation in a clearer way.*
+Yusuf: I can share some details about the accommodation once I finalize everything.</t>
         </is>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -3274,7 +3316,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Yusuf: I'm planning to attend the summer session. It fits well with my schedule.</t>
+          <t>Yusuf: I'm planning to go for the fall semester session. It aligns well with my current academic schedule.</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -3300,7 +3342,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Yusuf: Yeah, let's fill out the form together. It's important to do it accurately for the application.</t>
+          <t>Yusuf: Yeah, we should definitely get that form filled out soon to secure our spots for the program.</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -3326,7 +3368,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Yusuf: Absolutely, let's not forget any details when filling out the form. Accuracy is key.</t>
+          <t>Yusuf: Let's get it done then. I'll grab my laptop, and we can fill it out together.</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -3355,7 +3397,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Yusuf: We can submit the form to the international office. They handle all the applications for study abroad programs.</t>
+          <t>Yusuf: We'll need to submit the form to the international programs office. They handle all the paperwork for study abroad programs.</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -3384,17 +3426,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Feedback: Try using a different verb after "write" to indicate directing your questions to someone.</t>
+          <t>Yusuf: You can write your questions to the study abroad coordinator. They're really helpful and can provide all the information you need.</t>
         </is>
       </c>
       <c r="D16" t="n">
         <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -3410,7 +3452,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Yusuf: Yes, I took an English proficiency test last week. It was a requirement for the study abroad program.</t>
+          <t>Yusuf: Yeah, I took the English proficiency test last week. It was a bit challenging, but I think I did okay.</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -3439,7 +3481,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Yusuf: I watched video lessons on a website called Khan Academy. They have a lot of educational content available for free.</t>
+          <t>Yusuf: I watched video lessons on YouTube and also used some online platforms like Khan Academy for extra help.</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -3468,7 +3510,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Yusuf: I want to improve my scores in math and physics. Those subjects are a bit challenging for me.</t>
+          <t>Yusuf: I'm focusing on improving my writing skills the most. I feel like that's where I need the most practice.</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -3494,7 +3536,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Yusuf: I usually study with my classmates from the engineering program. It helps to discuss the topics together.</t>
+          <t>Yusuf: I usually study with my classmates from the engineering program. We form study groups for exams and assignments.</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -3523,17 +3565,19 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Feedback: Try using "materials" instead of "meterials" to refer to your study resources.</t>
+          <t>[Feedback] Error: *who do u receive the meterials*  
+Feedback: *It seems like you're asking about receiving materials. Try rephrasing the question to ask about who provides the materials.*
+Yusuf: I usually get study materials from the library or online resources for my courses.</t>
         </is>
       </c>
       <c r="D21" t="n">
         <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -3549,7 +3593,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Yusuf: That sounds like a great idea, Omar. Practicing English together will definitely help us improve.</t>
+          <t>Yusuf: That sounds like a good idea. We can meet up at the library or a cafe to practice English together.</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -3575,7 +3619,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Yusuf: Absolutely, I'm ready for our English practice session. Let's make the most of it!</t>
+          <t>Yusuf: Yeah, I'm ready. Just let me know the day and time, and I'll be there.</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -3601,17 +3645,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Feedback: Consider using "I know everything about you, Yusuf" to correctly structure this sentence.</t>
+          <t>Yusuf: Oh really? What's the most interesting thing you've learned about me then?</t>
         </is>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -3627,17 +3671,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Feedback: To express that you are not interested in the exchange program, you could say, "I don't care about the exchange program."</t>
+          <t>Yusuf: That's okay. We can talk about something else that interests you. What's been on your mind lately?</t>
         </is>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -3653,17 +3697,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Feedback: Try using "anymore" at the end of the sentence for a clearer expression: "We are not friends anymore. I don't want to talk to you."</t>
+          <t>Yusuf: I'm sorry to hear that. If you change your mind or need anything, feel free to reach out.</t>
         </is>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -3679,7 +3723,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>I'm here to help you improve your English skills! If you have any questions or need assistance, feel free to ask.</t>
+          <t>I'm here to help you. If you have any questions or need assistance, feel free to ask.</t>
         </is>
       </c>
       <c r="D27" t="n">
@@ -3701,7 +3745,7 @@
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
-          <t>If you ever want to continue or need assistance in the future, feel free to come back. Have a great day!</t>
+          <t>If you ever want to continue our conversation or need help in the future, just come back. Take care! Goodbye!</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -3722,7 +3766,7 @@
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>55.56%</t>
+          <t>74.07%</t>
         </is>
       </c>
     </row>
@@ -3793,17 +3837,19 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Yusuf: I’ve been good, thanks for asking. Just finished a tough exam. How did yours go?</t>
+          <t>[Feedback] Error: *been better how about you*  
+Feedback: *Consider using the word "I've" at the beginning of your sentence.*
+Yusuf: I've been doing well, thanks for asking. Just trying to keep up with all the assignments.</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -3822,7 +3868,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Yusuf: I'm thinking of applying to the engineering program. Have you decided which program to apply for yet?</t>
+          <t>Yusuf: I'm thinking of applying to the engineering program. It seems like a good fit for me.</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -3851,17 +3897,19 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Yusuf: I'm considering studying in the UK. Have you thought about which country you'd like to study in?</t>
+          <t>[Feedback] Error: *which country do you want to study abroad*  
+Feedback: *The structure is correct, but the preposition used is not quite right. Consider using a different preposition.*
+Yusuf: I'm considering studying abroad in the UK. The universities there have great engineering programs.</t>
         </is>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -3877,7 +3925,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Yusuf: Germany is a great choice. Have you started looking into universities there?</t>
+          <t>That's a great choice! Germany is known for its excellent education system. Have you started looking into universities there?</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -3903,7 +3951,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Yusuf: I plan to start the program next fall. When are you thinking of starting your studies in Germany?</t>
+          <t>I'm aiming to start the program next fall. I still need to finalize a few things before then.</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -3929,7 +3977,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Try adding a word after 'for sure' to make the sentence clearer.</t>
+          <t>Definitely, there's a lot to prepare for when studying abroad. Have you thought about any specific cities in Germany where you'd like to study?</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -3958,7 +4006,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Try using a different preposition after 'download' to indicate the source of the brochure.</t>
+          <t>You can usually download brochures directly from the university's official website. Just go to the program page you're interested in, and there should be a link to download the brochure.</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -3987,7 +4035,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Try using "accommodation" with a different article to specify which type you are referring to.</t>
+          <t>I'm looking into student dormitories near the university campus. It's convenient and a good way to meet other students.</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -4013,7 +4061,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Yusuf: Sure, I'll send you the link to the website with accommodation information. Just let me find it for you.</t>
+          <t>I'll send you the link to the university's accommodation page. Just give me a moment to find it.</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -4042,7 +4090,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Try adjusting the word order slightly to correctly ask about the session you are attending.</t>
+          <t>I'm planning to attend the summer session. It fits better with my schedule.</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -4068,7 +4116,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Yusuf: That's a good idea. We should definitely fill out the application form soon.</t>
+          <t>That's a good idea. Let's make sure we have all the necessary documents ready before we start filling out the form.</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -4097,7 +4145,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Yusuf: We should submit the form to the admissions office. Have you checked the deadline for submission?</t>
+          <t>We usually submit the form to the international student office at the university. They can guide us through the application process.</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -4123,7 +4171,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Yusuf: The info session will be about an hour long. Are you planning to attend the whole session?</t>
+          <t>The info session is usually around an hour long. It's good to attend to get all the details about the program and application process.</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -4149,7 +4197,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Try adjusting the word order slightly to correctly ask about the person you want to send an email to.</t>
+          <t>You can send an email to the admissions office or the international student services department. They should be able to assist you with any questions you have.</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -4175,7 +4223,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Yusuf: I took an English exam last month. Have you been studying for any exams recently?</t>
+          <t>I took the TOEFL exam last month as part of the application requirements for studying abroad. It was quite challenging!</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -4204,7 +4252,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Try using a different preposition after 'watch' to specify the source of the video lessons.</t>
+          <t>I usually watch video lessons on YouTube or educational platforms like Coursera. They have a wide range of topics to choose from.</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -4233,7 +4281,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Try using 'areas' instead of 'area' to indicate the multiple aspects you want to improve.</t>
+          <t>I'm focusing on improving my speaking and writing skills the most. I feel like those are the areas where I need the most practice.</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -4259,7 +4307,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Yusuf: I usually study with my classmates. Do you prefer studying alone or with friends?</t>
+          <t>I usually study with a group of friends from my classes. We help each other out and make studying more fun.</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -4285,7 +4333,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Yusuf: I got all the preparation materials online. Have you found helpful resources for your studies?</t>
+          <t>I got all the preparation materials from the university's study abroad office. They provided guides and resources to help us get ready for the application process.</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -4311,7 +4359,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Yusuf: That sounds like a great idea. I agree, meeting next week to practice English conversations would be very helpful.</t>
+          <t>That sounds like a great idea! Meeting up to practice English conversations will definitely help us improve our language skills.</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -4337,7 +4385,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Yusuf: Deal! Looking forward to improving our English skills together.</t>
+          <t>Absolutely, looking forward to it! It's always more motivating to study together.</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -4363,7 +4411,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Yusuf: See you next week for our study session. Have a great day!</t>
+          <t>See you next week! Have a great day!</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -4389,7 +4437,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Yusuf: Thanks, take care!</t>
+          <t>Take care!</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -4415,7 +4463,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>That was a great conversation we had! If you have any more questions or need further practice, feel free to ask. Good job on the English practice today!</t>
+          <t>That's a wrap! If you have any more questions or need help in the future, feel free to reach out. Have a wonderful day!</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -4436,7 +4484,7 @@
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>62.50%</t>
+          <t>70.83%</t>
         </is>
       </c>
     </row>
@@ -4504,7 +4552,9 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Yusuf: Omar, you mean "right now" instead of "rigth now." It's important to spell it correctly.</t>
+          <t>[Feedback] Error: *I feel ready rigth now*  
+Feedback: *Check the word 'rigth', it seems to be misspelled.*
+Yusuf: That's great to hear, Omar! Ready for what exactly?</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -4533,17 +4583,19 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Yusuf: Omar, you are missing "are" in your sentence. You should say, "Which program are you planning to apply to?"</t>
+          <t>[Feedback] Error: *Yusuf which program planned to apply*  
+Feedback: *Try adding a preposition to connect 'apply' with the program.*
+Yusuf: I'm planning to apply for the engineering exchange program next semester.</t>
         </is>
       </c>
       <c r="D3" t="n">
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -4562,7 +4614,9 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Yusuf: Omar, you need to include "to" after "apply." Say, "Which program are you planning to apply to?"</t>
+          <t>[Feedback] Error: *Yusuf which planned apply with the program*  
+Feedback: *The word order in the sentence is a bit confusing. Try rephrasing for clarity.*
+Yusuf: I plan to apply for the program in engineering. It sounds like a great opportunity.</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -4591,7 +4645,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Yusuf: Omar, you should use "to" after "planned." It should be "Which program are you planning to apply to?"</t>
+          <t>Yusuf: I'm planning to apply for the computer science program. What about you, Omar?</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -4620,17 +4674,19 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Yusuf: Omar, you missed the article before "country." You should say, "Which country do you want to study abroad in?"</t>
+          <t>[Feedback] Error: *Yusuf which country want to study abroad*  
+Feedback: *The structure of the sentence is correct, but the preposition used is not the most suitable one.*
+Yusuf: I want to study abroad in the United States. How about you, Omar?</t>
         </is>
       </c>
       <c r="D6" t="n">
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -4649,17 +4705,19 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Yusuf: Omar, you need to use "to" before "live." It should be "I want to live in Italy."</t>
+          <t>[Feedback] Error: *I study in Turkiye but I want live in a Italy*  
+Feedback: *Remember to use an article before 'Italy'.*
+Yusuf: That sounds exciting, Omar! Why Italy specifically?</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -4678,14 +4736,16 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Yusuf: Omar, you should use "to" in your sentence. It should be, "When do you plan to start a change program?"</t>
+          <t>[Feedback] Error: *When you planned start a change program*  
+Feedback: *Try adding a preposition to connect 'start' with the change program.*
+Yusuf: I plan to start the exchange program next year. Have you thought about when you want to start?</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -4707,7 +4767,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Yusuf: Omar, you should use "from" instead of "to" after "download." It should be, "Which website should I download the change program brochure from?"</t>
+          <t>Yusuf: You can download the exchange program brochure from the university's official website. It should have all the information you need.</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -4736,17 +4796,19 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Yusuf: Omar, you need to use "of" after "type" and "consider" should be in the present tense. It should be, "What type of accommodation are you considering?"</t>
+          <t>[Feedback] Error: *Ysusuf what type consider a accomodation*  
+Feedback: *Remember to use the correct article before 'accommodation'.*
+Yusuf: When considering accommodation, you can choose between on-campus dorms or off-campus apartments.</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -4762,7 +4824,9 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Yusuf: Omar, you should add "me" after "send" and a preposition before "accommodation." It should be, "Please send me accommodation information, including websites. Send the links to me."</t>
+          <t>[Feedback] Error: *Yusuf please you sendbaccomodation inform inclueded web sites send link from to me*  
+Feedback: *There are some missing words in the sentence. Try to include all the necessary words for clarity.*
+Yusuf: Sure, I'll send you the accommodation information along with the websites. Let me find the links for you.</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -4791,7 +4855,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Yusuf: Omar, you need to use "are you going to" instead of "go to." It should be, "Which session are you going to?"</t>
+          <t>Yusuf: I plan to attend the afternoon session. Which one are you thinking of going to, Omar?</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -4817,7 +4881,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Yusuf: Omar, you should say "fill out" instead of "fill." It should be "I think you and Omar fill out the application form right now."</t>
+          <t>Yusuf: That's a good idea. Let's fill out the application form together. It shouldn't take too long.</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -4839,7 +4903,7 @@
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Thank you for the practice! If you have any more questions or need further help, feel free to ask. Good job!</t>
+          <t>It was great discussing the application process with you, Omar. If you have any more questions later, feel free to ask. See you around!</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -4860,7 +4924,7 @@
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>30.77%</t>
+          <t>61.54%</t>
         </is>
       </c>
     </row>
@@ -4931,17 +4995,19 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Yusuf: I've been good too, Omar. How was your weekend?</t>
+          <t>[Feedback] Error: *It’s been good Omar.*  
+Feedback: *Try adding an article before a person's name to make it sound more natural.*
+Yusuf: I've been doing well too. Just trying to keep up with all the assignments.</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -4957,7 +5023,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Yusuf: Which program are you planning on applying for?</t>
+          <t>Yusuf: I'm thinking of applying to the engineering program. What about you, Omar?</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -4986,7 +5052,9 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Feedback: Remember to use an article before "country" to specify which one is being referred to.</t>
+          <t>[Feedback] Error: *Which country do you want to study abroad?*  
+Feedback: *The preposition is in the right place, but it’s not the correct one. Try using a different preposition.*
+Yusuf: I'm considering studying in the United States. It seems like a great opportunity.</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -5012,7 +5080,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Yusuf: I want to study abroad in Germany, it seems like a great place.</t>
+          <t>Yusuf: Germany is a fantastic choice! Have you started looking into universities there?</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -5038,7 +5106,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Yusuf: Yeah, studying in another country can be a fantastic experience.</t>
+          <t>Yusuf: That's great to hear, Omar. Studying in Germany will be an amazing experience for sure.</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -5064,7 +5132,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Yusuf: That sounds like a good plan, Omar. Starting next year gives you time to prepare.</t>
+          <t>Yusuf: Planning ahead is smart. Next year will come sooner than you think!</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -5090,17 +5158,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Feedback: When using "also" in a sentence, make sure it is placed correctly to show the connection with the previous statement.</t>
+          <t>Yusuf: Definitely, having a plan makes everything feel more organized. It's exciting to think about what's ahead.</t>
         </is>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -5116,7 +5184,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Yusuf: It's understandable not to have checked yet. You still have plenty of time to decide.</t>
+          <t>Yusuf: It's good to take your time and not rush into things. When you do start looking, I'm sure you'll find some great options in Germany.</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -5145,17 +5213,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Yusuf: Taking some time during your free moments to research will help you make an informed choice.</t>
+          <t>Yusuf: That sounds like a good approach. Balancing studies and planning for the future can be challenging, but it's important to make time for both.</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -5171,17 +5239,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Feedback: Check the spelling of "exchange" in your question.</t>
+          <t>Yusuf: My exchange program is scheduled to start in the fall semester next year. I'm really looking forward to it.</t>
         </is>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -5200,7 +5268,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Yusuf: You can often download program brochures from the official university or exchange program websites.</t>
+          <t>Yusuf: You can usually find the exchange program brochure on the university's official website. Have you checked there yet?</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -5229,7 +5297,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Yusuf: I'm thinking about staying in a student dormitory during my exchange program. It's usually convenient and a good way to meet other students.</t>
+          <t>Yusuf: I'm thinking of staying in student dormitories during my exchange program. It's a convenient option and a great way to meet other students.</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -5255,7 +5323,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Yusuf: Sure, I can send you the link to the website where you can find details about accommodation for the exchange program.</t>
+          <t>Yusuf: Sure, I can send you the link to the university's accommodation page. Let me find it for you.</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -5284,14 +5352,14 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Feedback: Make sure to use the correct preposition to indicate attending a specific session.</t>
+          <t>Yusuf: I'll be attending the spring session for my exchange program. It aligns better with my academic schedule.</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>1</v>
@@ -5310,7 +5378,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Yusuf: It's a good idea to fill out the application form now to secure your spot.</t>
+          <t>Yusuf: You're right, I shouldn't leave it for the last minute. I'll make sure to fill out the application form soon.</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -5339,17 +5407,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Feedback: Remember to use the correct pronoun to ask about the submission of application forms.</t>
+          <t>Yusuf: We usually submit our application forms to the international office at our university. They can guide us through the process.</t>
         </is>
       </c>
       <c r="D17" t="n">
         <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -5365,7 +5433,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Yusuf: Do you want to know how long the information sessions will last?</t>
+          <t>Yusuf: The info sessions usually last around an hour or so. It's good to attend to get all the necessary details.</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -5394,17 +5462,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Yusuf: If you have a question, you can usually send an email to the program coordinator for assistance.</t>
+          <t>Yusuf: You can send your email to the international student advisor. They should be able to help you with any questions you have.</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -5420,17 +5488,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Feedback: Remember to use the correct article before "English exam".</t>
+          <t>Yusuf: Yes, I took an English proficiency test last month as part of the application process for the exchange program. It was quite challenging!</t>
         </is>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -5446,7 +5514,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Yusuf: I've been using a website called Coursera to watch video lessons. It offers a lot of educational content.</t>
+          <t>Yusuf: I've been using an online platform called Coursera to watch video lessons for some of my courses. It's been really helpful.</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -5472,7 +5540,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Yusuf: I want to improve my scores in the speaking section. It's an area I find challenging.</t>
+          <t>Yusuf: I'm aiming to improve my scores in writing and speaking. I feel like those are the areas where I have the most room for growth.</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -5498,7 +5566,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Yusuf: I mostly study English with my classmates from the language course. Studying together helps us practice speaking.</t>
+          <t>Yusuf: I mostly study English with my classmates and sometimes on my own using online resources. It's a mix of group study and self-study for me.</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -5527,14 +5595,16 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Feedback: Remember to use the correct word to refer to materials that help you prepare for exams.</t>
+          <t>[Feedback] Error: *Who do you receive exam preparement materials from?*  
+Feedback: *Try using 'preparation' instead of 'preparement' in this context.*
+Yusuf: I usually get exam preparation materials from the university's language center. They provide a lot of helpful resources.</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>1</v>
@@ -5553,7 +5623,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Yusuf: Meeting next week for an English speaking practice sounds like a great idea. It'll be helpful for both of us.</t>
+          <t>Yusuf: That sounds like a great idea, Omar! Practicing English together will definitely help us improve. Let's plan to meet next week.</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -5579,7 +5649,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Yusuf: That was a fun conversation, Omar. See you next time for more English practice!</t>
+          <t>It was nice chatting with you, Omar! See you next time for our English practice session. Take care!</t>
         </is>
       </c>
       <c r="D26" t="n">
@@ -5600,7 +5670,7 @@
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>68.00%</t>
+          <t>88.00%</t>
         </is>
       </c>
     </row>
@@ -5672,17 +5742,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Yusuf: Hey Omar, I've been doing really well lately. How about you?</t>
+          <t>Yusuf: Hey, Omar! I'm doing well too. Just catching up on some assignments.</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -5702,17 +5772,19 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Yusuf: Which exchange program are you thinking of applying for?</t>
+          <t>[Feedback] Error: *Which exchange program are you thinking about applying.*  
+Feedback: *Try adding a preposition to connect 'applying' with the program.*
+Yusuf: I'm considering the Erasmus exchange program. It sounds like a fantastic opportunity to study abroad.</t>
         </is>
       </c>
       <c r="D3" t="n">
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -5728,7 +5800,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Yusuf: Yeah, it's exciting to think about studying abroad, right?</t>
+          <t>Yusuf: Yeah, I'm pretty excited about it. Have you thought about any programs for yourself?</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -5758,7 +5830,9 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Feedback: Try adding a preposition before "you would like to study abroad in" to show the connection between the country and studying there.</t>
+          <t>[Feedback] Error: *Which country you would like to study abroad in.*  
+Feedback: *Try using a different preposition to connect 'study abroad' with the location.*
+Yusuf: I'm thinking about studying in Spain. The culture and language there really interest me.</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -5784,7 +5858,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Yusuf: That's awesome! Indonesia sounds like a fascinating place to study.</t>
+          <t>That sounds like a fantastic choice! Indonesia has such a rich culture and beautiful landscapes.</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -5810,17 +5884,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Feedback: Consider restructuring the sentence to include a time reference for starting the Erasmus program.</t>
+          <t>I'm planning to start the Erasmus program next semester. I still need to finalize a few things before I can go.</t>
         </is>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -5836,7 +5910,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Yusuf: Omar, starting the Erasmus program in 11 years might be a bit far in the future. Have you considered a closer timeframe?</t>
+          <t>Haha, I hope not! Time flies, but let's hope it doesn't fly that fast.</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -5866,7 +5940,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Yusuf: You can download our program's brochure from the university's official website.</t>
+          <t>You can download the program brochure from the university's official website. Just look for the section on international programs.</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -5896,17 +5970,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Feedback: Try adding a preposition after "stay" to connect it to the location where you are considering staying.</t>
+          <t>I'm thinking of staying in a student dormitory on campus. It seems like a convenient option for my first time living abroad.</t>
         </is>
       </c>
       <c r="D10" t="n">
         <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -5922,7 +5996,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Yusuf: It's important to think about where you'll stay during your exchange program, right?</t>
+          <t>It's going to be an adventure for sure. Have you thought about your accommodation plans for when you study abroad?</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -5952,17 +6026,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Yusuf: Sure, I can send you information about accommodations for the program.</t>
+          <t>I can help you with that. I'll send you the details of the accommodation options available for students studying abroad.</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -5982,17 +6056,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Feedback: Consider using a preposition to show the purpose of going to a specific session.</t>
+          <t>I'm planning to go for the fall session. The weather should be nice, and I heard there are some interesting events happening on campus during that time.</t>
         </is>
       </c>
       <c r="D13" t="n">
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -6008,7 +6082,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Yusuf: Wow, that's amazing! Buying a 2010 Audi R8 must be really exciting.</t>
+          <t>Wow, that's awesome! An Audi R8 is a really cool car. When did you get it?</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -6034,7 +6108,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Yusuf: Thanks, Omar! If you ever need a ride, just shoot me a text.</t>
+          <t>I'll definitely take you up on that offer! It would be fun to go for a drive in your new car.</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -6060,7 +6134,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Yusuf: Oh no, that's terrible to hear about your car blowing up. Are you okay?</t>
+          <t>Oh no, that's terrible! Are you okay? What happened to the car?</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -6086,7 +6160,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Yusuf: It sounds like a really tough situation. Have you contacted roadside assistance for help?</t>
+          <t>I'm really sorry to hear that. Do you need any help with the situation?</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -6112,7 +6186,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Yusuf: Oh no, I hope everything is okay. What happened at the hospital?</t>
+          <t>I hope you get better soon. Let me know if there's anything I can do to help.</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -6138,7 +6212,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Yusuf: Yeah, let's download the application forms now before we forget.</t>
+          <t>That's a good idea. I'll look up the application forms for the exchange program and send them to you.</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -6164,7 +6238,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Yusuf: We usually submit the files to the international office. They handle all the application processes.</t>
+          <t>We usually submit the application forms to the international office at our university. They'll guide us through the process.</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -6194,17 +6268,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Yusuf: The information session usually lasts around an hour. It's good to get all the details you need.</t>
+          <t>I think the information session will last about an hour. It's usually a good opportunity to ask questions and get all the details we need.</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -6224,17 +6298,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Yusuf: If you have a problem, you can write an email to the international office. They should be able to help you out.</t>
+          <t>If you have a problem, you can write an email to the student services office. They should be able to assist you with any issues you're facing.</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -6250,17 +6324,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Feedback: Consider using the definite article "the" before "English exam" to refer to a specific exam in English.</t>
+          <t>I haven't taken an English exam recently, but I'm planning to take one soon to improve my language skills.</t>
         </is>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -6276,7 +6350,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Yusuf: I use an online platform to watch lessons and study.</t>
+          <t>I usually use online platforms like YouTube or Coursera to watch educational videos and lessons. They have a lot of useful content.</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -6306,7 +6380,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Yusuf: I want to improve my scores in the speaking and writing sections.</t>
+          <t>I'm focusing on improving my writing skills. I feel like that's an area where I could use some more practice.</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -6332,7 +6406,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Yusuf: I study with a group of friends from my class. It's really helpful to have study partners.</t>
+          <t>I usually study alone, but sometimes I join study groups with classmates for certain subjects. How about you?</t>
         </is>
       </c>
       <c r="D26" t="n">
@@ -6358,7 +6432,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Yusuf: I usually get study materials from our professors and also online resources.</t>
+          <t>I usually get my study materials from the university library or online resources. Where do you usually get yours from?</t>
         </is>
       </c>
       <c r="D27" t="n">
@@ -6384,7 +6458,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Yusuf: Sure, we can meet at the hospital next week to practice English. It's a good idea to keep practicing.</t>
+          <t>Sure, I'd be happy to visit you at the hospital next week. It'll be a good opportunity to practice English together.</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -6410,7 +6484,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Yusuf: Oh no, that's terrible! Is everyone okay?</t>
+          <t>Oh no, that's terrible news! Are you okay? Do you need any help?</t>
         </is>
       </c>
       <c r="D29" t="n">
@@ -6436,7 +6510,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Yusuf: I'm so sorry to hear about your loss. If you need anything, I'm here for you.</t>
+          <t>I'm so sorry to hear that. Losing someone close is incredibly tough. If you need to talk or anything, I'm here for you.</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -6462,17 +6536,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Feedback: Consider using the correct possessive pronoun before "wife" to show the relationship accurately.</t>
+          <t>I don't have a wife. I'm currently single. How about you?</t>
         </is>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -6488,17 +6562,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Feedback: Consider using the auxiliary verb "have" along with the correct past participle form to ask about a past event.</t>
+          <t>I've never been married, so no divorce for me. Just focusing on college and friends for now.</t>
         </is>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -6514,17 +6588,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Feedback: Use the past simple form of the verb to ask about a completed action in the past.</t>
+          <t>No, I've never been married. Maybe you're thinking of someone else.</t>
         </is>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -6540,17 +6614,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Feedback: Consider using the full form of "girlfriend" for better clarity in your sentence.</t>
+          <t>I'm currently single, so no girlfriend at the moment. Just focusing on my studies and enjoying college life.</t>
         </is>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -6566,7 +6640,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Yusuf: Yeah, it's good to talk and catch up with friends.</t>
+          <t>Yeah, it's nice to have the freedom to focus on personal growth and studies without any distractions.</t>
         </is>
       </c>
       <c r="D35" t="n">
@@ -6592,17 +6666,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Feedback: Check the spelling of the word "tested" for the correct past form of the verb.</t>
+          <t>I think you might have mistyped something there. What did you mean to say?</t>
         </is>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -6618,7 +6692,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Yusuf: Alright, take care and talk to you soon!</t>
+          <t>No worries! Take care, and feel free to reach out anytime. See you later!</t>
         </is>
       </c>
       <c r="D37" t="n">
@@ -6644,7 +6718,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Yusuf: See you later, Omar!</t>
+          <t>Goodbye! See you next time!</t>
         </is>
       </c>
       <c r="D38" t="n">
@@ -6670,7 +6744,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Great job on our English drama script! If you have any more scenarios you'd like to practice, feel free to start a new conversation. Goodbye for now!</t>
+          <t>Great job! If you have any more questions or need further practice, feel free to start a new conversation. Goodbye!</t>
         </is>
       </c>
       <c r="D39" t="n">
@@ -6691,7 +6765,7 @@
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>63.16%</t>
+          <t>89.47%</t>
         </is>
       </c>
     </row>
@@ -6761,19 +6835,19 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Yusuf: Which program do you want to apply for? 
---- 
-Note: You can use "apply for" instead of just "apply" when talking about applying for something specific like a program.</t>
+          <t>[Feedback] Error: *Which program do you want to apply?*
+Feedback: *Try adding a preposition to connect 'apply' with the program.*
+Yusuf: I'm thinking of applying to the exchange program in Spain. It sounds like a great opportunity!</t>
         </is>
       </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -6792,9 +6866,9 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Yusuf: Omar, which country do you want to study in? 
---- 
-Feedback: Remember to use "in" after the location when talking about studying in a specific country.</t>
+          <t>[Feedback] Error: *Yusuf, which country do you want to study*
+Feedback: *It seems like a preposition is missing in your sentence.*
+Yusuf: I want to study in Italy. The culture there is fascinating!</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -6823,9 +6897,9 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Yusuf: Omar, which country do you want to study abroad in?
----
-Feedback: You need a preposition after "study abroad."</t>
+          <t>[Feedback] Error: *Yusuf, which country do you want to study abroud*
+Feedback: *The preposition used here is not the correct one.*
+Yusuf: I want to study abroad in France. The language and cuisine are so appealing to me!</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -6851,19 +6925,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Yusuf: When are you thinking of starting? 
---- 
-Feedback: Your sentence is correct! Great job!</t>
+          <t>Yusuf: I'm considering starting next semester. It seems like a good time to begin the program.</t>
         </is>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -6879,19 +6951,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Yusuf: What kind of accommodation are you considering? 
----
-Feedback: Your sentence is perfect! Keep it up!</t>
+          <t>Yusuf: I'm looking into student dormitories near the university. It's convenient and budget-friendly.</t>
         </is>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -6907,19 +6977,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Yusuf: Can you send me information about your accommodation?
----
-Feedback: Instead of "your accommodation information," try switching the order of the words.</t>
+          <t>Yusuf: Sure, I'll share the details with you once I finalize everything.</t>
         </is>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -6935,19 +7003,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Yusuf: Now send it.
----
-Feedback: To be clear, you could specify what "it" refers to.</t>
+          <t>Yusuf: I haven't received all the information yet, but I'll definitely share it with you as soon as I do.</t>
         </is>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -6966,19 +7032,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Yusuf: Which session are you going to attend? 
---- 
-Feedback: Try using "are going to" to talk about future events.</t>
+          <t>Yusuf: I plan to attend the morning session. It fits well with my schedule.</t>
         </is>
       </c>
       <c r="D9" t="n">
         <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -6994,19 +7058,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Yusuf: Can you fill out the application form now?
----
-Feedback: Your sentence is correct! Good job!</t>
+          <t>Yusuf: I'll fill out the application form later today. I want to make sure I have all the necessary information ready.</t>
         </is>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -7025,9 +7087,9 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Yusuf: Who should the application form be submitted to?
---- 
-Feedback: Remember to use "to" after "submitted." Great effort!</t>
+          <t>[Feedback] Error: *Who should the application form be submited*
+Feedback: *It seems like a preposition is missing in your sentence.*
+Yusuf: The application form should be submitted to the international office.</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -7053,19 +7115,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Yusuf: How long will the information session be?
----
-Feedback: Your sentence is grammatically correct! Keep it up!</t>
+          <t>Yusuf: The information session is scheduled to last about an hour. It shouldn't take too long.</t>
         </is>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -7084,19 +7144,19 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Yusuf: Who should I email if I have a question?
---- 
-Feedback: You need to add "should" after "Who" to make a complete question.</t>
+          <t>[Feedback] Error: *Who write I email if I have a question?*
+Feedback: *There seems to be an issue with the word order in your sentence.*
+Yusuf: You should email the program coordinator if you have any questions.</t>
         </is>
       </c>
       <c r="D13" t="n">
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -7112,19 +7172,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Yusuf: Have you taken an English exam?
----
-Feedback: Remember to capitalize "English" as it's a language. Great job otherwise!</t>
+          <t>Yusuf: Yes, I took an English exam last year. It was challenging but helpful for my studies.</t>
         </is>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -7140,19 +7198,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Yusuf: Which website do you watch lessons on?
----
-Feedback: Your sentence is correct! Just a small note: consider using "do you watch lessons on" for clarity.</t>
+          <t>Yusuf: I usually watch lessons on YouTube. There are many educational channels that are quite useful.</t>
         </is>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -7171,19 +7227,19 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Yusuf: Which area do you need to improve your scores in?
----
-Feedback: To indicate where you need to improve, you can say "need to improve your scores in" instead of "improving scores" directly.</t>
+          <t>[Feedback] Error: *Which area do you improving scores*
+Feedback: *It seems like there is a mistake in the structure of your sentence.*
+Yusuf: I'm focusing on improving my scores in grammar and vocabulary. They are essential for academic success.</t>
         </is>
       </c>
       <c r="D16" t="n">
         <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -7199,19 +7255,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Yusuf: Who do you study English with?
----
-Feedback: To talk about studying a language, remember to capitalize "English." Great job otherwise!</t>
+          <t>Yusuf: I study English with a language exchange partner. It's a great way to practice speaking.</t>
         </is>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -7230,19 +7284,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Yusuf: Who do you receive your exam preparation materials from?
----
-Feedback: You need to add "from" after "receive" to indicate the source of the materials.</t>
+          <t>Yusuf: I received my exam preparation materials from the university's language center. They provide helpful resources for students.</t>
         </is>
       </c>
       <c r="D18" t="n">
         <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -7258,19 +7310,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Yusuf: Omar, shall we meet to practice speaking English?
----
-Feedback: Great job! When talking about practicing a language, use a lowercase "e" for "English."</t>
+          <t>Yusuf: That sounds like a great idea! Let's meet at the library tomorrow afternoon to practice speaking English.</t>
         </is>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -7286,19 +7336,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Yusuf: That's the end for today! 
---- 
-Feedback: Great job! Remember to use "The end" for storytelling or performances. Keep up the good work!</t>
+          <t>Great job! If you have any more questions or need further practice, feel free to ask. Have a wonderful day!</t>
         </is>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -7309,7 +7357,7 @@
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>36.84%</t>
+          <t>78.95%</t>
         </is>
       </c>
     </row>
